--- a/src/170307_CMIP6_expt_list.xlsx
+++ b/src/170307_CMIP6_expt_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="7980" windowWidth="33480" windowHeight="22900" tabRatio="500"/>
+    <workbookView xWindow="5460" yWindow="2960" windowWidth="35540" windowHeight="22900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="823">
   <si>
     <t>CMIP6 Experiment List</t>
   </si>
@@ -1005,9 +1005,6 @@
   </si>
   <si>
     <t>a year in the range 1960-2016</t>
-  </si>
-  <si>
-    <t>5 - 10 years after start year)</t>
   </si>
   <si>
     <t>no parent, DCPP</t>
@@ -2943,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD84"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
+      <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4811,7 +4808,7 @@
         <v>18</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>141</v>
@@ -4820,19 +4817,19 @@
         <v>142</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>162</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>139</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
@@ -6915,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F98" s="11" t="s">
         <v>322</v>
@@ -6933,33 +6930,33 @@
         <v>324</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="L98" s="11">
         <v>5</v>
       </c>
       <c r="M98" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="N98" s="12" t="s">
         <v>326</v>
-      </c>
-      <c r="N98" s="12" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="267" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D99" s="5">
         <v>4</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>322</v>
@@ -6977,33 +6974,33 @@
         <v>324</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="L99" s="5">
         <v>5</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="267" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D100" s="5">
         <v>4</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>322</v>
@@ -7018,10 +7015,10 @@
         <v>181</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="L100" s="5">
         <v>5</v>
@@ -7030,24 +7027,24 @@
         <v>22</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D101" s="5">
         <v>1</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>322</v>
@@ -7062,30 +7059,30 @@
         <v>181</v>
       </c>
       <c r="J101" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="K101" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="L101" s="5">
         <v>5</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D102" s="5">
         <v>2</v>
@@ -7114,18 +7111,18 @@
         <v>22</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D103" s="5">
         <v>2</v>
@@ -7154,18 +7151,18 @@
         <v>22</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D104" s="5">
         <v>1</v>
@@ -7194,18 +7191,18 @@
         <v>22</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -7234,18 +7231,18 @@
         <v>22</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D106" s="5">
         <v>2</v>
@@ -7274,18 +7271,18 @@
         <v>22</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D107" s="5">
         <v>2</v>
@@ -7314,18 +7311,18 @@
         <v>22</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D108" s="5">
         <v>1</v>
@@ -7354,24 +7351,24 @@
         <v>22</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D109" s="5">
         <v>3</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>322</v>
@@ -7386,7 +7383,7 @@
         <v>181</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K109" s="5">
         <v>2014</v>
@@ -7398,24 +7395,24 @@
         <v>22</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D110" s="5">
         <v>3</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>322</v>
@@ -7430,10 +7427,10 @@
         <v>181</v>
       </c>
       <c r="J110" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="K110" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="K110" s="5" t="s">
-        <v>370</v>
       </c>
       <c r="L110" s="5">
         <v>5</v>
@@ -7442,24 +7439,24 @@
         <v>35</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D111" s="5">
         <v>3</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>322</v>
@@ -7477,33 +7474,33 @@
         <v>2014</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L111" s="5">
         <v>5</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D112" s="5">
         <v>3</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>322</v>
@@ -7521,33 +7518,33 @@
         <v>2014</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L112" s="5">
         <v>5</v>
       </c>
       <c r="M112" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="C113" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="D113" s="5">
         <v>1</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>322</v>
@@ -7565,33 +7562,33 @@
         <v>2014</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L113" s="5">
         <v>5</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D114" s="5">
         <v>2</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>322</v>
@@ -7609,33 +7606,33 @@
         <v>1962</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L114" s="5">
         <v>5</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D115" s="5">
         <v>2</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>322</v>
@@ -7653,33 +7650,33 @@
         <v>1981</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L115" s="5">
         <v>5</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D116" s="5">
         <v>1</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>322</v>
@@ -7697,27 +7694,27 @@
         <v>1990</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L116" s="5">
         <v>5</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N116" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D117" s="5">
         <v>1</v>
@@ -7746,18 +7743,18 @@
         <v>22</v>
       </c>
       <c r="N117" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D118" s="5">
         <v>2</v>
@@ -7786,18 +7783,18 @@
         <v>22</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D119" s="5">
         <v>2</v>
@@ -7826,18 +7823,18 @@
         <v>22</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D120" s="5">
         <v>1</v>
@@ -7866,18 +7863,18 @@
         <v>22</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D121" s="5">
         <v>1</v>
@@ -7906,24 +7903,24 @@
         <v>22</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D122" s="5">
         <v>3</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>322</v>
@@ -7938,7 +7935,7 @@
         <v>181</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K122" s="5">
         <v>2014</v>
@@ -7950,18 +7947,18 @@
         <v>22</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="127" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="C123" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="D123" s="5">
         <v>2</v>
@@ -7990,18 +7987,18 @@
         <v>22</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="D124" s="5">
         <v>1</v>
@@ -8030,18 +8027,18 @@
         <v>22</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>420</v>
       </c>
       <c r="D125" s="5">
         <v>2</v>
@@ -8070,18 +8067,18 @@
         <v>22</v>
       </c>
       <c r="N125" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="D126" s="5">
         <v>1</v>
@@ -8110,18 +8107,18 @@
         <v>22</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="D127" s="5">
         <v>1</v>
@@ -8150,18 +8147,18 @@
         <v>22</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="C128" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="D128" s="5">
         <v>2</v>
@@ -8173,7 +8170,7 @@
         <v>18</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>170</v>
@@ -8187,21 +8184,21 @@
         <v>10</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D129" s="5">
         <v>1</v>
@@ -8230,18 +8227,18 @@
         <v>22</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="D130" s="5">
         <v>1</v>
@@ -8274,18 +8271,18 @@
         <v>22</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="D131" s="5">
         <v>2</v>
@@ -8297,7 +8294,7 @@
         <v>18</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>170</v>
@@ -8314,18 +8311,18 @@
         <v>118</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="D132" s="5">
         <v>2</v>
@@ -8337,7 +8334,7 @@
         <v>18</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>170</v>
@@ -8354,18 +8351,18 @@
         <v>118</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="D133" s="5">
         <v>2</v>
@@ -8377,7 +8374,7 @@
         <v>18</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>170</v>
@@ -8394,18 +8391,18 @@
         <v>118</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>449</v>
       </c>
       <c r="D134" s="5">
         <v>1</v>
@@ -8438,18 +8435,18 @@
         <v>22</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="D135" s="5">
         <v>1</v>
@@ -8482,18 +8479,18 @@
         <v>22</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="D136" s="5">
         <v>2</v>
@@ -8505,7 +8502,7 @@
         <v>18</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>170</v>
@@ -8522,18 +8519,18 @@
         <v>118</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="D137" s="5">
         <v>2</v>
@@ -8545,7 +8542,7 @@
         <v>18</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>170</v>
@@ -8562,18 +8559,18 @@
         <v>118</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>461</v>
       </c>
       <c r="D138" s="5">
         <v>2</v>
@@ -8602,18 +8599,18 @@
         <v>22</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="C139" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="D139" s="5">
         <v>1</v>
@@ -8646,18 +8643,18 @@
         <v>35</v>
       </c>
       <c r="N139" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>468</v>
       </c>
       <c r="D140" s="5">
         <v>3</v>
@@ -8690,18 +8687,18 @@
         <v>35</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="D141" s="5">
         <v>3</v>
@@ -8734,18 +8731,18 @@
         <v>35</v>
       </c>
       <c r="N141" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="D142" s="5">
         <v>3</v>
@@ -8778,18 +8775,18 @@
         <v>35</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="D143" s="5">
         <v>2</v>
@@ -8822,18 +8819,18 @@
         <v>22</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>480</v>
       </c>
       <c r="D144" s="5">
         <v>2</v>
@@ -8866,18 +8863,18 @@
         <v>22</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="C145" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="D145" s="5">
         <v>2</v>
@@ -8889,13 +8886,13 @@
         <v>18</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>180</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -8903,21 +8900,21 @@
         <v>100</v>
       </c>
       <c r="M145" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="D146" s="5">
         <v>2</v>
@@ -8929,13 +8926,13 @@
         <v>18</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>180</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J146" s="5">
         <v>2015</v>
@@ -8947,21 +8944,21 @@
         <v>36</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>493</v>
       </c>
       <c r="D147" s="5">
         <v>3</v>
@@ -8973,13 +8970,13 @@
         <v>18</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>170</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J147" s="5">
         <v>1979</v>
@@ -8991,21 +8988,21 @@
         <v>36</v>
       </c>
       <c r="M147" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="D148" s="5">
         <v>3</v>
@@ -9017,13 +9014,13 @@
         <v>18</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>170</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J148" s="5">
         <v>2015</v>
@@ -9035,21 +9032,21 @@
         <v>36</v>
       </c>
       <c r="M148" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="D149" s="5">
         <v>3</v>
@@ -9061,13 +9058,13 @@
         <v>18</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>170</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J149" s="5">
         <v>1979</v>
@@ -9079,21 +9076,21 @@
         <v>36</v>
       </c>
       <c r="M149" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="D150" s="5">
         <v>3</v>
@@ -9105,13 +9102,13 @@
         <v>18</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>170</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J150" s="5">
         <v>1979</v>
@@ -9123,21 +9120,21 @@
         <v>36</v>
       </c>
       <c r="M150" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D151" s="5">
         <v>1</v>
@@ -9155,7 +9152,7 @@
         <v>170</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J151" s="5">
         <v>1950</v>
@@ -9170,18 +9167,18 @@
         <v>35</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="D152" s="5">
         <v>3</v>
@@ -9193,13 +9190,13 @@
         <v>18</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>170</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J152" s="5">
         <v>1979</v>
@@ -9211,21 +9208,21 @@
         <v>36</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D153" s="5">
         <v>2</v>
@@ -9237,13 +9234,13 @@
         <v>18</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>180</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J153" s="5">
         <v>1950</v>
@@ -9255,21 +9252,21 @@
         <v>65</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D154" s="5">
         <v>2</v>
@@ -9287,7 +9284,7 @@
         <v>180</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
@@ -9298,18 +9295,18 @@
         <v>35</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="C155" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="D155" s="5">
         <v>1</v>
@@ -9338,18 +9335,18 @@
         <v>22</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="D156" s="5">
         <v>1</v>
@@ -9361,10 +9358,10 @@
         <v>18</v>
       </c>
       <c r="G156" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="H156" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="H156" s="5" t="s">
-        <v>522</v>
       </c>
       <c r="I156" s="5" t="s">
         <v>181</v>
@@ -9375,21 +9372,21 @@
         <v>350</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>525</v>
       </c>
       <c r="D157" s="5">
         <v>2</v>
@@ -9401,10 +9398,10 @@
         <v>18</v>
       </c>
       <c r="G157" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="H157" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="H157" s="5" t="s">
-        <v>522</v>
       </c>
       <c r="I157" s="5" t="s">
         <v>181</v>
@@ -9419,21 +9416,21 @@
         <v>165</v>
       </c>
       <c r="M157" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N157" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="D158" s="5">
         <v>1</v>
@@ -9445,10 +9442,10 @@
         <v>18</v>
       </c>
       <c r="G158" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="H158" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>530</v>
       </c>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
@@ -9457,21 +9454,21 @@
         <v>350</v>
       </c>
       <c r="M158" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N158" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>532</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>533</v>
       </c>
       <c r="D159" s="5">
         <v>1</v>
@@ -9483,10 +9480,10 @@
         <v>18</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
@@ -9495,21 +9492,21 @@
         <v>350</v>
       </c>
       <c r="M159" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N159" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>537</v>
       </c>
       <c r="D160" s="5">
         <v>3</v>
@@ -9521,10 +9518,10 @@
         <v>18</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5">
@@ -9537,21 +9534,21 @@
         <v>36</v>
       </c>
       <c r="M160" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N160" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>541</v>
       </c>
       <c r="D161" s="5">
         <v>1</v>
@@ -9563,10 +9560,10 @@
         <v>18</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -9575,21 +9572,21 @@
         <v>100</v>
       </c>
       <c r="M161" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N161" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="D162" s="5">
         <v>1</v>
@@ -9601,10 +9598,10 @@
         <v>18</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -9613,21 +9610,21 @@
         <v>100</v>
       </c>
       <c r="M162" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N162" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D163" s="5">
         <v>1</v>
@@ -9642,7 +9639,7 @@
         <v>35</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -9654,18 +9651,18 @@
         <v>35</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>548</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>549</v>
       </c>
       <c r="D164" s="5">
         <v>2</v>
@@ -9677,10 +9674,10 @@
         <v>18</v>
       </c>
       <c r="G164" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="H164" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="H164" s="5" t="s">
-        <v>530</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5">
@@ -9693,21 +9690,21 @@
         <v>165</v>
       </c>
       <c r="M164" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N164" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="D165" s="5">
         <v>2</v>
@@ -9719,10 +9716,10 @@
         <v>18</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5">
@@ -9735,21 +9732,21 @@
         <v>165</v>
       </c>
       <c r="M165" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>555</v>
       </c>
       <c r="D166" s="5">
         <v>3</v>
@@ -9764,7 +9761,7 @@
         <v>35</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -9776,18 +9773,18 @@
         <v>35</v>
       </c>
       <c r="N166" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D167" s="5">
         <v>1</v>
@@ -9802,7 +9799,7 @@
         <v>35</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -9814,18 +9811,18 @@
         <v>35</v>
       </c>
       <c r="N167" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D168" s="5">
         <v>1</v>
@@ -9840,7 +9837,7 @@
         <v>35</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -9852,18 +9849,18 @@
         <v>35</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="D169" s="5">
         <v>2</v>
@@ -9875,10 +9872,10 @@
         <v>18</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5">
@@ -9891,21 +9888,21 @@
         <v>85</v>
       </c>
       <c r="M169" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N169" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="D170" s="5">
         <v>2</v>
@@ -9917,10 +9914,10 @@
         <v>18</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I170" s="5"/>
       <c r="J170" s="5">
@@ -9933,21 +9930,21 @@
         <v>85</v>
       </c>
       <c r="M170" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N170" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D171" s="5">
         <v>1</v>
@@ -9962,7 +9959,7 @@
         <v>35</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I171" s="5" t="s">
         <v>181</v>
@@ -9976,18 +9973,18 @@
         <v>35</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>570</v>
       </c>
       <c r="D172" s="5">
         <v>2</v>
@@ -9999,10 +9996,10 @@
         <v>18</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I172" s="5" t="s">
         <v>181</v>
@@ -10017,21 +10014,21 @@
         <v>85</v>
       </c>
       <c r="M172" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="C173" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="D173" s="5">
         <v>2</v>
@@ -10064,18 +10061,18 @@
         <v>35</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="D174" s="5">
         <v>2</v>
@@ -10108,18 +10105,18 @@
         <v>35</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="D175" s="5">
         <v>2</v>
@@ -10152,18 +10149,18 @@
         <v>35</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C176" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="D176" s="5">
         <v>2</v>
@@ -10178,7 +10175,7 @@
         <v>35</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="5">
@@ -10194,18 +10191,18 @@
         <v>35</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C177" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>587</v>
       </c>
       <c r="D177" s="5">
         <v>2</v>
@@ -10220,7 +10217,7 @@
         <v>35</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I177" s="5"/>
       <c r="J177" s="5">
@@ -10236,18 +10233,18 @@
         <v>35</v>
       </c>
       <c r="N177" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>589</v>
       </c>
       <c r="D178" s="5">
         <v>2</v>
@@ -10262,7 +10259,7 @@
         <v>35</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I178" s="5"/>
       <c r="J178" s="5">
@@ -10278,18 +10275,18 @@
         <v>35</v>
       </c>
       <c r="N178" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C179" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>591</v>
       </c>
       <c r="D179" s="5">
         <v>2</v>
@@ -10304,7 +10301,7 @@
         <v>35</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="5">
@@ -10320,18 +10317,18 @@
         <v>35</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>593</v>
       </c>
       <c r="D180" s="5">
         <v>2</v>
@@ -10364,18 +10361,18 @@
         <v>22</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C181" s="6" t="s">
         <v>595</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>596</v>
       </c>
       <c r="D181" s="5">
         <v>1</v>
@@ -10408,18 +10405,18 @@
         <v>22</v>
       </c>
       <c r="N181" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>599</v>
       </c>
       <c r="D182" s="5">
         <v>2</v>
@@ -10452,18 +10449,18 @@
         <v>22</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="D183" s="5">
         <v>2</v>
@@ -10496,18 +10493,18 @@
         <v>22</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>605</v>
       </c>
       <c r="D184" s="5">
         <v>2</v>
@@ -10540,18 +10537,18 @@
         <v>22</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="D185" s="5">
         <v>2</v>
@@ -10584,18 +10581,18 @@
         <v>22</v>
       </c>
       <c r="N185" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="186" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="D186" s="5">
         <v>2</v>
@@ -10628,18 +10625,18 @@
         <v>22</v>
       </c>
       <c r="N186" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C187" s="6" t="s">
         <v>613</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>614</v>
       </c>
       <c r="D187" s="5">
         <v>2</v>
@@ -10672,18 +10669,18 @@
         <v>22</v>
       </c>
       <c r="N187" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>617</v>
       </c>
       <c r="D188" s="5">
         <v>2</v>
@@ -10716,18 +10713,18 @@
         <v>22</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="C189" s="6" t="s">
         <v>620</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>621</v>
       </c>
       <c r="D189" s="5">
         <v>1</v>
@@ -10742,11 +10739,11 @@
         <v>35</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K189" s="5">
         <v>2014</v>
@@ -10758,18 +10755,18 @@
         <v>35</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="C190" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>625</v>
       </c>
       <c r="D190" s="5">
         <v>1</v>
@@ -10800,18 +10797,18 @@
         <v>22</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="191" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>627</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>628</v>
       </c>
       <c r="D191" s="5">
         <v>1</v>
@@ -10844,18 +10841,18 @@
         <v>22</v>
       </c>
       <c r="N191" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>631</v>
       </c>
       <c r="D192" s="5">
         <v>1</v>
@@ -10888,18 +10885,18 @@
         <v>22</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="193" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>634</v>
       </c>
       <c r="D193" s="5">
         <v>2</v>
@@ -10914,11 +10911,11 @@
         <v>35</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I193" s="5"/>
       <c r="J193" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K193" s="5">
         <v>2014</v>
@@ -10930,18 +10927,18 @@
         <v>35</v>
       </c>
       <c r="N193" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>637</v>
       </c>
       <c r="D194" s="5">
         <v>2</v>
@@ -10956,11 +10953,11 @@
         <v>35</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K194" s="5">
         <v>2014</v>
@@ -10972,18 +10969,18 @@
         <v>35</v>
       </c>
       <c r="N194" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>640</v>
       </c>
       <c r="D195" s="5">
         <v>2</v>
@@ -10998,11 +10995,11 @@
         <v>35</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I195" s="5"/>
       <c r="J195" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K195" s="5">
         <v>2014</v>
@@ -11014,18 +11011,18 @@
         <v>35</v>
       </c>
       <c r="N195" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="196" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>642</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>643</v>
       </c>
       <c r="D196" s="5">
         <v>2</v>
@@ -11040,11 +11037,11 @@
         <v>35</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K196" s="5">
         <v>2014</v>
@@ -11056,18 +11053,18 @@
         <v>35</v>
       </c>
       <c r="N196" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="197" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>645</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>646</v>
       </c>
       <c r="D197" s="5">
         <v>2</v>
@@ -11082,11 +11079,11 @@
         <v>35</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I197" s="5"/>
       <c r="J197" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K197" s="5">
         <v>2014</v>
@@ -11098,18 +11095,18 @@
         <v>35</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>648</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>649</v>
       </c>
       <c r="D198" s="5">
         <v>2</v>
@@ -11124,11 +11121,11 @@
         <v>35</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I198" s="5"/>
       <c r="J198" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K198" s="5">
         <v>2014</v>
@@ -11140,18 +11137,18 @@
         <v>35</v>
       </c>
       <c r="N198" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>652</v>
       </c>
       <c r="D199" s="5">
         <v>2</v>
@@ -11166,11 +11163,11 @@
         <v>35</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I199" s="5"/>
       <c r="J199" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K199" s="5">
         <v>2014</v>
@@ -11182,18 +11179,18 @@
         <v>35</v>
       </c>
       <c r="N199" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C200" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>654</v>
       </c>
       <c r="D200" s="5">
         <v>2</v>
@@ -11208,11 +11205,11 @@
         <v>35</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K200" s="5">
         <v>2014</v>
@@ -11224,18 +11221,18 @@
         <v>35</v>
       </c>
       <c r="N200" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C201" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>656</v>
       </c>
       <c r="D201" s="5">
         <v>1</v>
@@ -11250,11 +11247,11 @@
         <v>35</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I201" s="5"/>
       <c r="J201" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K201" s="5">
         <v>2014</v>
@@ -11266,18 +11263,18 @@
         <v>35</v>
       </c>
       <c r="N201" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C202" s="6" t="s">
         <v>658</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>659</v>
       </c>
       <c r="D202" s="5">
         <v>2</v>
@@ -11292,11 +11289,11 @@
         <v>35</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I202" s="5"/>
       <c r="J202" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K202" s="5">
         <v>2014</v>
@@ -11308,18 +11305,18 @@
         <v>35</v>
       </c>
       <c r="N202" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="203" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C203" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>662</v>
       </c>
       <c r="D203" s="5">
         <v>1</v>
@@ -11334,11 +11331,11 @@
         <v>35</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I203" s="5"/>
       <c r="J203" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K203" s="5">
         <v>2014</v>
@@ -11350,18 +11347,18 @@
         <v>35</v>
       </c>
       <c r="N203" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>664</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>665</v>
       </c>
       <c r="D204" s="5">
         <v>2</v>
@@ -11376,11 +11373,11 @@
         <v>35</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I204" s="5"/>
       <c r="J204" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K204" s="5">
         <v>2014</v>
@@ -11392,18 +11389,18 @@
         <v>35</v>
       </c>
       <c r="N204" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>668</v>
       </c>
       <c r="D205" s="5">
         <v>2</v>
@@ -11418,11 +11415,11 @@
         <v>35</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I205" s="5"/>
       <c r="J205" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K205" s="5">
         <v>2014</v>
@@ -11434,18 +11431,18 @@
         <v>35</v>
       </c>
       <c r="N205" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>670</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>671</v>
       </c>
       <c r="D206" s="5">
         <v>2</v>
@@ -11460,11 +11457,11 @@
         <v>35</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I206" s="5"/>
       <c r="J206" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K206" s="5">
         <v>2014</v>
@@ -11476,18 +11473,18 @@
         <v>35</v>
       </c>
       <c r="N206" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="207" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C207" s="6" t="s">
         <v>673</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>674</v>
       </c>
       <c r="D207" s="5">
         <v>1</v>
@@ -11520,18 +11517,18 @@
         <v>22</v>
       </c>
       <c r="N207" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="208" spans="1:14" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>677</v>
       </c>
       <c r="D208" s="5">
         <v>1</v>
@@ -11564,18 +11561,18 @@
         <v>22</v>
       </c>
       <c r="N208" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="209" spans="1:14" ht="127" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B209" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="C209" s="6" t="s">
         <v>680</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>681</v>
       </c>
       <c r="D209" s="5">
         <v>1</v>
@@ -11590,7 +11587,7 @@
         <v>35</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I209" s="5"/>
       <c r="J209" s="5">
@@ -11606,18 +11603,18 @@
         <v>35</v>
       </c>
       <c r="N209" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="210" spans="1:14" ht="225" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C210" s="6" t="s">
         <v>684</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>685</v>
       </c>
       <c r="D210" s="5">
         <v>2</v>
@@ -11632,7 +11629,7 @@
         <v>35</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
@@ -11644,18 +11641,18 @@
         <v>35</v>
       </c>
       <c r="N210" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="211" spans="1:14" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C211" s="6" t="s">
         <v>686</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>687</v>
       </c>
       <c r="D211" s="5">
         <v>3</v>
@@ -11670,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
@@ -11682,18 +11679,18 @@
         <v>35</v>
       </c>
       <c r="N211" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="212" spans="1:14" ht="225" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>689</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>690</v>
       </c>
       <c r="D212" s="5">
         <v>3</v>
@@ -11708,7 +11705,7 @@
         <v>35</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
@@ -11720,18 +11717,18 @@
         <v>35</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="213" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B213" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="C213" s="6" t="s">
         <v>692</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>693</v>
       </c>
       <c r="D213" s="5">
         <v>1</v>
@@ -11760,18 +11757,18 @@
         <v>35</v>
       </c>
       <c r="N213" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="214" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>695</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>696</v>
       </c>
       <c r="D214" s="5">
         <v>1</v>
@@ -11800,18 +11797,18 @@
         <v>35</v>
       </c>
       <c r="N214" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="215" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="D215" s="5">
         <v>1</v>
@@ -11840,18 +11837,18 @@
         <v>35</v>
       </c>
       <c r="N215" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="216" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>701</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>702</v>
       </c>
       <c r="D216" s="5">
         <v>1</v>
@@ -11880,18 +11877,18 @@
         <v>35</v>
       </c>
       <c r="N216" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="217" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>704</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>705</v>
       </c>
       <c r="D217" s="5">
         <v>1</v>
@@ -11924,18 +11921,18 @@
         <v>35</v>
       </c>
       <c r="N217" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="218" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B218" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="C218" s="6" t="s">
         <v>708</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>709</v>
       </c>
       <c r="D218" s="5">
         <v>2</v>
@@ -11966,18 +11963,18 @@
         <v>22</v>
       </c>
       <c r="N218" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="219" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C219" s="6" t="s">
         <v>711</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>712</v>
       </c>
       <c r="D219" s="5">
         <v>1</v>
@@ -12008,18 +12005,18 @@
         <v>22</v>
       </c>
       <c r="N219" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="220" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>714</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>715</v>
       </c>
       <c r="D220" s="5">
         <v>1</v>
@@ -12048,18 +12045,18 @@
         <v>22</v>
       </c>
       <c r="N220" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="221" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C221" s="6" t="s">
         <v>717</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>718</v>
       </c>
       <c r="D221" s="5">
         <v>1</v>
@@ -12088,18 +12085,18 @@
         <v>22</v>
       </c>
       <c r="N221" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="222" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C222" s="6" t="s">
         <v>720</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>721</v>
       </c>
       <c r="D222" s="5">
         <v>1</v>
@@ -12128,18 +12125,18 @@
         <v>22</v>
       </c>
       <c r="N222" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="223" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C223" s="6" t="s">
         <v>723</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>724</v>
       </c>
       <c r="D223" s="5">
         <v>1</v>
@@ -12168,18 +12165,18 @@
         <v>22</v>
       </c>
       <c r="N223" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>727</v>
       </c>
       <c r="D224" s="5">
         <v>2</v>
@@ -12212,18 +12209,18 @@
         <v>22</v>
       </c>
       <c r="N224" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="225" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C225" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>730</v>
       </c>
       <c r="D225" s="5">
         <v>2</v>
@@ -12256,18 +12253,18 @@
         <v>22</v>
       </c>
       <c r="N225" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="226" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C226" s="6" t="s">
         <v>732</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>733</v>
       </c>
       <c r="D226" s="5">
         <v>2</v>
@@ -12300,18 +12297,18 @@
         <v>22</v>
       </c>
       <c r="N226" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C227" s="6" t="s">
         <v>735</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>736</v>
       </c>
       <c r="D227" s="5">
         <v>2</v>
@@ -12344,18 +12341,18 @@
         <v>22</v>
       </c>
       <c r="N227" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="228" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C228" s="6" t="s">
         <v>738</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>739</v>
       </c>
       <c r="D228" s="5">
         <v>1</v>
@@ -12384,18 +12381,18 @@
         <v>22</v>
       </c>
       <c r="N228" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C229" s="6" t="s">
         <v>741</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>742</v>
       </c>
       <c r="D229" s="5">
         <v>2</v>
@@ -12420,18 +12417,18 @@
         <v>22</v>
       </c>
       <c r="N229" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="230" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C230" s="6" t="s">
         <v>744</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>745</v>
       </c>
       <c r="D230" s="5">
         <v>2</v>
@@ -12456,18 +12453,18 @@
         <v>22</v>
       </c>
       <c r="N230" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="231" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C231" s="6" t="s">
         <v>747</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>748</v>
       </c>
       <c r="D231" s="5">
         <v>2</v>
@@ -12498,18 +12495,18 @@
         <v>22</v>
       </c>
       <c r="N231" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="232" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C232" s="6" t="s">
         <v>749</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>750</v>
       </c>
       <c r="D232" s="5">
         <v>2</v>
@@ -12540,18 +12537,18 @@
         <v>22</v>
       </c>
       <c r="N232" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="233" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C233" s="6" t="s">
         <v>751</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>752</v>
       </c>
       <c r="D233" s="5">
         <v>1</v>
@@ -12566,7 +12563,7 @@
         <v>35</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
@@ -12576,18 +12573,18 @@
         <v>35</v>
       </c>
       <c r="N233" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="234" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="B234" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="C234" s="6" t="s">
         <v>756</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>757</v>
       </c>
       <c r="D234" s="5">
         <v>1</v>
@@ -12616,18 +12613,18 @@
         <v>22</v>
       </c>
       <c r="N234" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="235" spans="1:14" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D235" s="5">
         <v>1</v>
@@ -12660,18 +12657,18 @@
         <v>22</v>
       </c>
       <c r="N235" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="236" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D236" s="5">
         <v>1</v>
@@ -12704,18 +12701,18 @@
         <v>22</v>
       </c>
       <c r="N236" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="237" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D237" s="5">
         <v>2</v>
@@ -12748,18 +12745,18 @@
         <v>22</v>
       </c>
       <c r="N237" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="238" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D238" s="5">
         <v>2</v>
@@ -12792,18 +12789,18 @@
         <v>22</v>
       </c>
       <c r="N238" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="239" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D239" s="5">
         <v>2</v>
@@ -12815,7 +12812,7 @@
         <v>18</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H239" s="5" t="s">
         <v>180</v>
@@ -12836,18 +12833,18 @@
         <v>118</v>
       </c>
       <c r="N239" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="240" spans="1:14" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D240" s="5">
         <v>1</v>
@@ -12880,18 +12877,18 @@
         <v>22</v>
       </c>
       <c r="N240" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="241" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D241" s="5">
         <v>2</v>
@@ -12924,7 +12921,7 @@
         <v>22</v>
       </c>
       <c r="N241" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="242" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
@@ -12932,10 +12929,10 @@
         <v>117</v>
       </c>
       <c r="B242" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="C242" s="6" t="s">
         <v>779</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>780</v>
       </c>
       <c r="D242" s="5">
         <v>1</v>
@@ -12968,18 +12965,18 @@
         <v>22</v>
       </c>
       <c r="N242" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="243" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="B243" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="C243" s="6" t="s">
         <v>783</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>784</v>
       </c>
       <c r="D243" s="5">
         <v>3</v>
@@ -12994,7 +12991,7 @@
         <v>35</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I243" s="5" t="s">
         <v>181</v>
@@ -13008,18 +13005,18 @@
         <v>35</v>
       </c>
       <c r="N243" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="244" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C244" s="6" t="s">
         <v>787</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>788</v>
       </c>
       <c r="D244" s="5">
         <v>3</v>
@@ -13052,18 +13049,18 @@
         <v>22</v>
       </c>
       <c r="N244" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="245" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C245" s="6" t="s">
         <v>790</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>791</v>
       </c>
       <c r="D245" s="5">
         <v>2</v>
@@ -13092,18 +13089,18 @@
         <v>22</v>
       </c>
       <c r="N245" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="246" spans="1:14" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>793</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>794</v>
       </c>
       <c r="D246" s="5">
         <v>3</v>
@@ -13115,7 +13112,7 @@
         <v>18</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H246" s="5" t="s">
         <v>180</v>
@@ -13133,21 +13130,21 @@
         <v>69</v>
       </c>
       <c r="M246" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N246" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="247" spans="1:14" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C247" s="6" t="s">
         <v>796</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>797</v>
       </c>
       <c r="D247" s="5">
         <v>1</v>
@@ -13176,18 +13173,18 @@
         <v>22</v>
       </c>
       <c r="N247" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="248" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>799</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>800</v>
       </c>
       <c r="D248" s="5">
         <v>2</v>
@@ -13216,18 +13213,18 @@
         <v>22</v>
       </c>
       <c r="N248" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="249" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C249" s="6" t="s">
         <v>802</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>803</v>
       </c>
       <c r="D249" s="5">
         <v>3</v>
@@ -13256,18 +13253,18 @@
         <v>22</v>
       </c>
       <c r="N249" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="250" spans="1:14" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>805</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>806</v>
       </c>
       <c r="D250" s="5">
         <v>1</v>
@@ -13296,18 +13293,18 @@
         <v>22</v>
       </c>
       <c r="N250" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="251" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C251" s="6" t="s">
         <v>808</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>809</v>
       </c>
       <c r="D251" s="5">
         <v>3</v>
@@ -13319,10 +13316,10 @@
         <v>18</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I251" s="5" t="s">
         <v>181</v>
@@ -13333,21 +13330,21 @@
         <v>3</v>
       </c>
       <c r="M251" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="N251" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="252" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>811</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>812</v>
       </c>
       <c r="D252" s="5">
         <v>1</v>
@@ -13376,18 +13373,18 @@
         <v>22</v>
       </c>
       <c r="N252" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="253" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>814</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>815</v>
       </c>
       <c r="D253" s="5">
         <v>1</v>
@@ -13416,7 +13413,7 @@
         <v>22</v>
       </c>
       <c r="N253" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
